--- a/medicine/Handicap/Comprendre_les_règles_tacites_des_relations_sociales/Comprendre_les_règles_tacites_des_relations_sociales.xlsx
+++ b/medicine/Handicap/Comprendre_les_règles_tacites_des_relations_sociales/Comprendre_les_règles_tacites_des_relations_sociales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Comprendre_les_r%C3%A8gles_tacites_des_relations_sociales</t>
+          <t>Comprendre_les_règles_tacites_des_relations_sociales</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Comprendre les règles tacites des relations sociales, sous-titré décoder les mystères de la vie en société à travers l'autisme est un essai de Temple Grandin et Sean Barron, originellement paru en anglais américain en 2005, sous le titre de The Unwritten Rules of Social Relationships: Decoding Social Mysteries Through the Unique Perspectives of Autism. Il a été traduit dans de nombreuses langues, dont le français en 2014, aux éditions de Boeck. L'ouvrage a été élu second meilleur livre de l'année en catégorie non-fiction par the ForeWord Magazine[1]. 
+Comprendre les règles tacites des relations sociales, sous-titré décoder les mystères de la vie en société à travers l'autisme est un essai de Temple Grandin et Sean Barron, originellement paru en anglais américain en 2005, sous le titre de The Unwritten Rules of Social Relationships: Decoding Social Mysteries Through the Unique Perspectives of Autism. Il a été traduit dans de nombreuses langues, dont le français en 2014, aux éditions de Boeck. L'ouvrage a été élu second meilleur livre de l'année en catégorie non-fiction par the ForeWord Magazine. 
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Comprendre_les_r%C3%A8gles_tacites_des_relations_sociales</t>
+          <t>Comprendre_les_règles_tacites_des_relations_sociales</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Éditions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Temple Grandin et Sean Barron (avec), The Unwritten Rules of Social Relationships, Future Horizons, 2005, 383 p. (ISBN 1-932565-06-X et 9781932565065)
 (en) Temple Grandin et Sean Barron (avec), Unwritten Rules of Social Relationships : Decoding Social Mysteries Through the Unique Perspectives, Future Horizons, 30 avril 2017, 2e éd., 425 p. (ISBN 978-1-941765-38-8 et 1-941765-38-6)
